--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>

--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>

--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30407</v>
+        <v>30529</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30407</v>
+        <v>30529</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30407</v>
+        <v>30529</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45566</v>
+        <v>45717</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30376</v>
+        <v>30498</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45566</v>
+        <v>45689</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30376</v>
+        <v>30498</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45566</v>
+        <v>45689</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30407</v>
+        <v>30529</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>

--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30407</v>
+        <v>30529</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30407</v>
+        <v>30529</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30407</v>
+        <v>30560</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45597</v>
+        <v>45748</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45566</v>
+        <v>45717</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30376</v>
+        <v>30498</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45566</v>
+        <v>45689</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30376</v>
+        <v>30529</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45566</v>
+        <v>45717</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30407</v>
+        <v>30529</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45597</v>
+        <v>45717</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30468</v>
+        <v>30592</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>

--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30592</v>
+        <v>30621</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45778</v>
+        <v>45810</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30592</v>
+        <v>30621</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45778</v>
+        <v>45810</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30592</v>
+        <v>30621</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45778</v>
+        <v>45810</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30592</v>
+        <v>30621</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45778</v>
+        <v>45810</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30498</v>
+        <v>30560</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30592</v>
+        <v>30621</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45778</v>
+        <v>45810</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45778</v>
+        <v>45810</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30592</v>
+        <v>30621</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45778</v>
+        <v>45810</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>

--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30592</v>
+        <v>30742</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30529</v>
+        <v>30682</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30529</v>
+        <v>30682</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30592</v>
+        <v>30742</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30529</v>
+        <v>30682</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30592</v>
+        <v>30742</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30592</v>
+        <v>30742</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30498</v>
+        <v>30651</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45689</v>
+        <v>45839</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30592</v>
+        <v>30742</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30498</v>
+        <v>30682</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45689</v>
+        <v>45870</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30529</v>
+        <v>30682</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45717</v>
+        <v>45870</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30592</v>
+        <v>30742</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45778</v>
+        <v>45931</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>

--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45931</v>
+        <v>46023</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>

--- a/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
+++ b/Liquidity/Global_M2/Datasums/Top8_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30834</v>
+        <v>30865</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>46023</v>
+        <v>46055</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30834</v>
+        <v>30865</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>46023</v>
+        <v>46055</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30834</v>
+        <v>30865</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>46023</v>
+        <v>46055</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>45962</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30834</v>
+        <v>30865</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>46023</v>
+        <v>46055</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30834</v>
+        <v>30865</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>46023</v>
+        <v>46055</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>30773</v>
@@ -785,7 +785,7 @@
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>46023</v>
+        <v>46055</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>45962</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30834</v>
+        <v>30865</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>46023</v>
+        <v>46055</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
